--- a/outputs/density_geounits/summary_stats_Dijon.xlsx
+++ b/outputs/density_geounits/summary_stats_Dijon.xlsx
@@ -7,11 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="area_mixres" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="area_mixres_new" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="area_hires" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="area_lores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="area_pop_sum" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="area_mixre" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="area_hires" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="area_lores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="area_pop_sum" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +456,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +466,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.017818973467274</v>
+        <v>4.91977811609783</v>
       </c>
     </row>
     <row r="4">
@@ -477,7 +476,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.039576852183754</v>
+        <v>3.657796129610291</v>
       </c>
     </row>
     <row r="5">
@@ -497,7 +496,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.343983359078182</v>
+        <v>1.984535758534032</v>
       </c>
     </row>
     <row r="7">
@@ -507,7 +506,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.535509742197828</v>
+        <v>4.493857248047651</v>
       </c>
     </row>
     <row r="8">
@@ -517,7 +516,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.991081236577473</v>
+        <v>6.7117363031279</v>
       </c>
     </row>
     <row r="9">
@@ -527,7 +526,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.61995695563082</v>
+        <v>15.18436404903118</v>
       </c>
     </row>
   </sheetData>
@@ -568,7 +567,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
@@ -578,7 +577,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.91977811609783</v>
+        <v>1.639923841218864</v>
       </c>
     </row>
     <row r="4">
@@ -588,7 +587,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.657796129610291</v>
+        <v>2.475963123518826</v>
       </c>
     </row>
     <row r="5">
@@ -598,7 +597,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2679469058443728</v>
+        <v>0.1037083221757092</v>
       </c>
     </row>
     <row r="6">
@@ -608,7 +607,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.984535758534032</v>
+        <v>0.2665787656351598</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +617,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.493857248047651</v>
+        <v>0.4863748450042779</v>
       </c>
     </row>
     <row r="8">
@@ -628,7 +627,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.7117363031279</v>
+        <v>2.140393506388455</v>
       </c>
     </row>
     <row r="9">
@@ -638,7 +637,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.18436404903118</v>
+        <v>14.61995695563082</v>
       </c>
     </row>
   </sheetData>
@@ -679,7 +678,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>147</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3">
@@ -689,7 +688,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.639923841218864</v>
+        <v>10.04453061344995</v>
       </c>
     </row>
     <row r="4">
@@ -699,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2.475963123518826</v>
+        <v>16.28400634699791</v>
       </c>
     </row>
     <row r="5">
@@ -709,7 +708,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1037083221757092</v>
+        <v>0.7452204619791821</v>
       </c>
     </row>
     <row r="6">
@@ -719,7 +718,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2665787656351598</v>
+        <v>2.345879198766711</v>
       </c>
     </row>
     <row r="7">
@@ -729,7 +728,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4863748450042779</v>
+        <v>4.623506001013555</v>
       </c>
     </row>
     <row r="8">
@@ -739,7 +738,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.140393506388455</v>
+        <v>8.767054075021758</v>
       </c>
     </row>
     <row r="9">
@@ -749,7 +748,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.61995695563082</v>
+        <v>63.92141432866036</v>
       </c>
     </row>
   </sheetData>
@@ -758,117 +757,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>index</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>area</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>count</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>mean</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10.04453061344995</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>std</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>16.28400634699791</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>min</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7452204619791821</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2.345879198766711</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>4.623506001013555</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>75%</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>8.767054075021758</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>63.92141432866036</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/outputs/density_geounits/summary_stats_Dijon.xlsx
+++ b/outputs/density_geounits/summary_stats_Dijon.xlsx
@@ -762,7 +762,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,11 +779,6 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -794,20 +789,24 @@
       <c r="B2" t="n">
         <v>241.0687347227989</v>
       </c>
-      <c r="C2" t="n">
-        <v>1052.135608923543</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Population</t>
+          <t>population</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>253637</v>
       </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>density</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>1052.135608923543</v>
       </c>
     </row>

--- a/outputs/density_geounits/summary_stats_Dijon.xlsx
+++ b/outputs/density_geounits/summary_stats_Dijon.xlsx
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>253637</v>
+        <v>252208</v>
       </c>
     </row>
     <row r="4">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1052.135608923543</v>
+        <v>1046.207838980074</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/density_geounits/summary_stats_Dijon.xlsx
+++ b/outputs/density_geounits/summary_stats_Dijon.xlsx
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.657796129610291</v>
+        <v>3.817123968925948</v>
       </c>
     </row>
     <row r="5">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.493857248047651</v>
+        <v>4.373229608902978</v>
       </c>
     </row>
     <row r="8">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.7117363031279</v>
+        <v>6.506528366714822</v>
       </c>
     </row>
     <row r="9">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>252208</v>
+        <v>252120</v>
       </c>
     </row>
     <row r="4">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1046.207838980074</v>
+        <v>1045.842797863891</v>
       </c>
     </row>
   </sheetData>
